--- a/emails.xlsx
+++ b/emails.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perek\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Sileneum_parser_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CBEE77-424C-454E-B014-0988492F8B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D83C54-B63B-4CC7-89E4-23EF6ED818FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,19 +25,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>perekalskiy.igor@gmail.com</t>
   </si>
   <si>
-    <t>ntcn</t>
+    <t>текст 1</t>
+  </si>
+  <si>
+    <t>текст 2</t>
+  </si>
+  <si>
+    <t>текст 3</t>
+  </si>
+  <si>
+    <t>текст 0</t>
+  </si>
+  <si>
+    <t>perekalskiy_igor@mail.ru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,10 +59,17 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="204"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,16 +89,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -361,7 +382,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -371,12 +392,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -387,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -395,11 +416,18 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{96552345-146C-49BB-BB13-07F48C53F97C}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{C1453B8D-F25C-4965-B7DA-BC8C564F2DC9}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{F2146B5E-4A38-4B5C-A86D-F24D5515F172}"/>
+    <hyperlink ref="A1" r:id="rId4" xr:uid="{F3195380-1FA5-448F-A6FC-261CB864DBEC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId5"/>
 </worksheet>
 </file>